--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Language.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Language.xlsx
@@ -44,6 +44,36 @@
     <t>da</t>
   </si>
   <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>German</t>
   </si>
   <si>
@@ -56,10 +86,85 @@
     <t>el</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>Slovakian</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>Slovene</t>
+  </si>
+  <si>
+    <t>sl</t>
   </si>
   <si>
     <t>Spanish</t>
@@ -68,115 +173,10 @@
     <t>es</t>
   </si>
   <si>
-    <t>Estonian</t>
-  </si>
-  <si>
-    <t>et</t>
-  </si>
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>fi</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>Irish</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>Hungarian</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>Icelandic</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>Lithuanian</t>
-  </si>
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>Latvian</t>
-  </si>
-  <si>
-    <t>lv</t>
-  </si>
-  <si>
-    <t>Maltese</t>
-  </si>
-  <si>
-    <t>mt</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>nl</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Polish</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>Romanian</t>
-  </si>
-  <si>
-    <t>ro</t>
-  </si>
-  <si>
-    <t>Slovakian</t>
-  </si>
-  <si>
-    <t>sk</t>
-  </si>
-  <si>
-    <t>Slovene</t>
-  </si>
-  <si>
-    <t>sl</t>
-  </si>
-  <si>
     <t>Swedish</t>
   </si>
   <si>
     <t>sv</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -387,60 +387,60 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
